--- a/第03组/03项目计划.xlsx
+++ b/第03组/03项目计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27405" windowHeight="10290"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -443,6 +443,24 @@
   </si>
   <si>
     <t>总结：经过项目微展示后我发现我们还是与别人相距甚远的，界面设计也有点不是很美观的，功能上的也不是很完善，主要是app端的问题，我们pc端也有一些小问题的，成功时来源于细节的，我们得捉住每一个细节，把每一个细节都做好了，才是我们应该有态度啊</t>
+  </si>
+  <si>
+    <t>日期：2018.12.3第十四周周一</t>
+  </si>
+  <si>
+    <t>测试报告</t>
+  </si>
+  <si>
+    <t>网页端使用手册</t>
+  </si>
+  <si>
+    <t>APP端完善</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>辅助</t>
   </si>
 </sst>
 </file>
@@ -450,9 +468,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -480,10 +498,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,16 +581,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,107 +635,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,7 +651,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +777,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,151 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,11 +906,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,32 +930,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,8 +959,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,17 +980,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,10 +1011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,133 +1023,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1515,10 +1533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259:D260"/>
+      <selection activeCell="A269" sqref="A269:D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4118,8 +4136,104 @@
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
     </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B261" s="9"/>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D262" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C263" s="12"/>
+      <c r="D263" s="6"/>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C264" s="15"/>
+      <c r="D264" s="7"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C265" s="15"/>
+      <c r="D265" s="7"/>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C266" s="15"/>
+      <c r="D266" s="7"/>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C267" s="15"/>
+      <c r="D267" s="7"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C268" s="16"/>
+      <c r="D268" s="8"/>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="4"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="111">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -4146,6 +4260,7 @@
     <mergeCell ref="A231:D231"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A261:D261"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B73:B78"/>
     <mergeCell ref="B145:B148"/>
@@ -4179,6 +4294,7 @@
     <mergeCell ref="C233:C238"/>
     <mergeCell ref="C243:C248"/>
     <mergeCell ref="C253:C258"/>
+    <mergeCell ref="C263:C268"/>
     <mergeCell ref="D43:D48"/>
     <mergeCell ref="D53:D58"/>
     <mergeCell ref="D63:D68"/>
@@ -4201,6 +4317,7 @@
     <mergeCell ref="D233:D238"/>
     <mergeCell ref="D243:D248"/>
     <mergeCell ref="D253:D258"/>
+    <mergeCell ref="D263:D268"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A29:D30"/>
@@ -4227,6 +4344,7 @@
     <mergeCell ref="A239:D240"/>
     <mergeCell ref="A249:D250"/>
     <mergeCell ref="A259:D260"/>
+    <mergeCell ref="A269:D270"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
